--- a/Database-Model.xlsx
+++ b/Database-Model.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>first_name</t>
   </si>
@@ -97,22 +97,20 @@
   </si>
   <si>
     <t>created_at</t>
+  </si>
+  <si>
+    <t>Table:</t>
+  </si>
+  <si>
+    <t>Employee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -125,6 +123,20 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -147,14 +159,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -487,157 +500,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="20">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="18">
+      <c r="B2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
+    <row r="3" spans="1:11">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H3" s="2">
         <v>55000</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J3" s="3">
         <v>42382.103425925925</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K3" s="3">
         <v>42382.103425925925</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
+    <row r="4" spans="1:11">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H4" s="2">
         <v>75000</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J4" s="3">
         <v>42382.103425925925</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K4" s="3">
         <v>42382.103425925925</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
+    <row r="5" spans="1:11">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H5" s="2">
         <v>65000</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J5" s="3">
         <v>42382.103425925925</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K5" s="3">
         <v>42382.103425925925</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
